--- a/testdata/SmokeTestTables.xlsx
+++ b/testdata/SmokeTestTables.xlsx
@@ -1,75 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVNSeleniumScripts\EaseAutomation\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510A6642-F7A6-42D0-82A4-5D93FD6245AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F91D940-5551-4A9C-8B67-BC2962356477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
-    <sheet name="SearchTradeProgram" sheetId="56" r:id="rId2"/>
-    <sheet name="CreateTradeProgram" sheetId="57" r:id="rId3"/>
-    <sheet name="CreateStateProvince" sheetId="55" r:id="rId4"/>
-    <sheet name="SearchSchBCode" sheetId="52" r:id="rId5"/>
-    <sheet name="CreateSchBCode" sheetId="53" r:id="rId6"/>
-    <sheet name="SearchStateProvince" sheetId="54" r:id="rId7"/>
-    <sheet name="SearchRegDataMapping" sheetId="50" r:id="rId8"/>
-    <sheet name="CreateRegDataMapping" sheetId="51" r:id="rId9"/>
-    <sheet name="CreateNewPort" sheetId="49" r:id="rId10"/>
-    <sheet name="AddOfficeOfExit" sheetId="46" r:id="rId11"/>
-    <sheet name="SearchPaerlessTradeEligibility" sheetId="47" r:id="rId12"/>
-    <sheet name="SearchPort" sheetId="48" r:id="rId13"/>
-    <sheet name="SearchHazmat" sheetId="41" r:id="rId14"/>
-    <sheet name="CreateNewHazmat" sheetId="42" r:id="rId15"/>
-    <sheet name="SearchHsDetail" sheetId="43" r:id="rId16"/>
-    <sheet name="CreateHsDetails" sheetId="44" r:id="rId17"/>
-    <sheet name="SearchOfficOfExit" sheetId="45" r:id="rId18"/>
-    <sheet name="SearchDocumetationReq" sheetId="35" r:id="rId19"/>
-    <sheet name="AddDataEntryCentre" sheetId="34" r:id="rId20"/>
-    <sheet name="Addcustomstatdetail" sheetId="32" r:id="rId21"/>
-    <sheet name="SearchDataentryCentre" sheetId="33" r:id="rId22"/>
-    <sheet name="CreatNewMiscCodeType" sheetId="28" r:id="rId23"/>
-    <sheet name="SrchAgencyMiscCode" sheetId="29" r:id="rId24"/>
-    <sheet name="CreatAgencyMiscCode" sheetId="30" r:id="rId25"/>
-    <sheet name="AddDocumentReqDetails" sheetId="36" r:id="rId26"/>
-    <sheet name="SrchCustomStatDetails" sheetId="31" r:id="rId27"/>
-    <sheet name="SearchDocumentType" sheetId="37" r:id="rId28"/>
-    <sheet name="createdocumentType" sheetId="38" r:id="rId29"/>
-    <sheet name="SearchDocReqFormLevel" sheetId="39" r:id="rId30"/>
-    <sheet name="SrchAgencyMiscCodeType" sheetId="27" r:id="rId31"/>
-    <sheet name="Searchstaticdataconfiguration" sheetId="23" r:id="rId32"/>
-    <sheet name="AddStaticdataConfig" sheetId="24" r:id="rId33"/>
-    <sheet name="SearchCountryConfig" sheetId="16" r:id="rId34"/>
-    <sheet name="AddCountryConfg" sheetId="17" r:id="rId35"/>
-    <sheet name="AddDocuReqFormLevel" sheetId="40" r:id="rId36"/>
-    <sheet name="SearchCountryGroup" sheetId="18" r:id="rId37"/>
-    <sheet name="SearchContrllingAgency" sheetId="25" r:id="rId38"/>
-    <sheet name="AddContrllingAgency" sheetId="26" r:id="rId39"/>
-    <sheet name="AddCountrygroup" sheetId="19" r:id="rId40"/>
-    <sheet name="SearchDataGoupCode" sheetId="20" r:id="rId41"/>
-    <sheet name="AddDatagroupCode" sheetId="21" r:id="rId42"/>
-    <sheet name="SearchDataSubGoupCode" sheetId="22" r:id="rId43"/>
-    <sheet name="SearchInvalidHTS" sheetId="2" r:id="rId44"/>
-    <sheet name="CreateHTSCodes" sheetId="3" r:id="rId45"/>
-    <sheet name="SearchCarriers" sheetId="4" r:id="rId46"/>
-    <sheet name="CopyCarrier" sheetId="15" r:id="rId47"/>
-    <sheet name="AddCarrier" sheetId="5" r:id="rId48"/>
-    <sheet name="SearchAirports" sheetId="6" r:id="rId49"/>
-    <sheet name="AddAirports" sheetId="7" r:id="rId50"/>
-    <sheet name="SearchClassification" sheetId="8" r:id="rId51"/>
-    <sheet name="AuthTransactionTypes" sheetId="9" r:id="rId52"/>
-    <sheet name="SearchCommodityType" sheetId="10" r:id="rId53"/>
-    <sheet name="AddCommodityType" sheetId="11" r:id="rId54"/>
-    <sheet name="SearchConfidenceLevel" sheetId="12" r:id="rId55"/>
-    <sheet name="AddConfidenceLevel" sheetId="13" r:id="rId56"/>
-    <sheet name="SearchCountry" sheetId="14" r:id="rId57"/>
+    <sheet name="SearchSpiDetails" sheetId="59" r:id="rId2"/>
+    <sheet name="SearchTradeProgram" sheetId="56" r:id="rId3"/>
+    <sheet name="CreateTradeProgram" sheetId="57" r:id="rId4"/>
+    <sheet name="AddTransmitter" sheetId="58" r:id="rId5"/>
+    <sheet name="CreateStateProvince" sheetId="55" r:id="rId6"/>
+    <sheet name="SearchSchBCode" sheetId="52" r:id="rId7"/>
+    <sheet name="CreateSchBCode" sheetId="53" r:id="rId8"/>
+    <sheet name="SearchStateProvince" sheetId="54" r:id="rId9"/>
+    <sheet name="SearchRegDataMapping" sheetId="50" r:id="rId10"/>
+    <sheet name="CreateRegDataMapping" sheetId="51" r:id="rId11"/>
+    <sheet name="CreateNewPort" sheetId="49" r:id="rId12"/>
+    <sheet name="AddOfficeOfExit" sheetId="46" r:id="rId13"/>
+    <sheet name="SearchPaerlessTradeEligibility" sheetId="47" r:id="rId14"/>
+    <sheet name="SearchPort" sheetId="48" r:id="rId15"/>
+    <sheet name="SearchHazmat" sheetId="41" r:id="rId16"/>
+    <sheet name="CreateNewHazmat" sheetId="42" r:id="rId17"/>
+    <sheet name="SearchHsDetail" sheetId="43" r:id="rId18"/>
+    <sheet name="CreateHsDetails" sheetId="44" r:id="rId19"/>
+    <sheet name="SearchOfficOfExit" sheetId="45" r:id="rId20"/>
+    <sheet name="SearchDocumetationReq" sheetId="35" r:id="rId21"/>
+    <sheet name="AddDataEntryCentre" sheetId="34" r:id="rId22"/>
+    <sheet name="Addcustomstatdetail" sheetId="32" r:id="rId23"/>
+    <sheet name="SearchDataentryCentre" sheetId="33" r:id="rId24"/>
+    <sheet name="CreatNewMiscCodeType" sheetId="28" r:id="rId25"/>
+    <sheet name="SrchAgencyMiscCode" sheetId="29" r:id="rId26"/>
+    <sheet name="CreatAgencyMiscCode" sheetId="30" r:id="rId27"/>
+    <sheet name="AddDocumentReqDetails" sheetId="36" r:id="rId28"/>
+    <sheet name="SrchCustomStatDetails" sheetId="31" r:id="rId29"/>
+    <sheet name="SearchDocumentType" sheetId="37" r:id="rId30"/>
+    <sheet name="createdocumentType" sheetId="38" r:id="rId31"/>
+    <sheet name="SearchDocReqFormLevel" sheetId="39" r:id="rId32"/>
+    <sheet name="SrchAgencyMiscCodeType" sheetId="27" r:id="rId33"/>
+    <sheet name="Searchstaticdataconfiguration" sheetId="23" r:id="rId34"/>
+    <sheet name="AddStaticdataConfig" sheetId="24" r:id="rId35"/>
+    <sheet name="SearchCountryConfig" sheetId="16" r:id="rId36"/>
+    <sheet name="AddCountryConfg" sheetId="17" r:id="rId37"/>
+    <sheet name="AddDocuReqFormLevel" sheetId="40" r:id="rId38"/>
+    <sheet name="SearchCountryGroup" sheetId="18" r:id="rId39"/>
+    <sheet name="SearchContrllingAgency" sheetId="25" r:id="rId40"/>
+    <sheet name="AddContrllingAgency" sheetId="26" r:id="rId41"/>
+    <sheet name="AddCountrygroup" sheetId="19" r:id="rId42"/>
+    <sheet name="SearchDataGoupCode" sheetId="20" r:id="rId43"/>
+    <sheet name="AddDatagroupCode" sheetId="21" r:id="rId44"/>
+    <sheet name="SearchDataSubGoupCode" sheetId="22" r:id="rId45"/>
+    <sheet name="SearchInvalidHTS" sheetId="2" r:id="rId46"/>
+    <sheet name="CreateHTSCodes" sheetId="3" r:id="rId47"/>
+    <sheet name="SearchCarriers" sheetId="4" r:id="rId48"/>
+    <sheet name="CopyCarrier" sheetId="15" r:id="rId49"/>
+    <sheet name="AddCarrier" sheetId="5" r:id="rId50"/>
+    <sheet name="SearchAirports" sheetId="6" r:id="rId51"/>
+    <sheet name="AddAirports" sheetId="7" r:id="rId52"/>
+    <sheet name="SearchClassification" sheetId="8" r:id="rId53"/>
+    <sheet name="AuthTransactionTypes" sheetId="9" r:id="rId54"/>
+    <sheet name="SearchCommodityType" sheetId="10" r:id="rId55"/>
+    <sheet name="AddCommodityType" sheetId="11" r:id="rId56"/>
+    <sheet name="SearchConfidenceLevel" sheetId="12" r:id="rId57"/>
+    <sheet name="AddConfidenceLevel" sheetId="13" r:id="rId58"/>
+    <sheet name="SearchCountry" sheetId="14" r:id="rId59"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -81,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="475">
   <si>
     <t>TestNo</t>
   </si>
@@ -1464,6 +1466,48 @@
   </si>
   <si>
     <t>T056</t>
+  </si>
+  <si>
+    <t>Add transmitter</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>748651</t>
+  </si>
+  <si>
+    <t>T057</t>
+  </si>
+  <si>
+    <t>AddTransmitter</t>
+  </si>
+  <si>
+    <t>LanguageCode</t>
+  </si>
+  <si>
+    <t>FTACode</t>
+  </si>
+  <si>
+    <t>SPICode</t>
+  </si>
+  <si>
+    <t>search SPI details</t>
+  </si>
+  <si>
+    <t>SearchSPIDetails</t>
+  </si>
+  <si>
+    <t>T058</t>
+  </si>
+  <si>
+    <t>FTA_AE_01</t>
+  </si>
+  <si>
+    <t>5414684</t>
+  </si>
+  <si>
+    <t>SPI Code</t>
   </si>
 </sst>
 </file>
@@ -1843,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2482,6 +2526,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>464</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>471</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2489,6 +2555,141 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8E2512-937F-49DF-B3E9-6D93766CAAE6}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9635D6B4-4A2C-4BB0-84CA-1AF97942EDFC}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="E2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD80E2C-2D45-461E-97C7-AA0D4C82FF0E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2562,7 +2763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3451FFA9-CD0B-4350-AAF5-D59B6B629C44}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2622,7 +2823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AB3CE5-7489-4ED5-8956-D8F6FCAF8966}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2682,7 +2883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA18596-7AF3-4301-AC1A-4C34E5D79B67}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2774,7 +2975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A32C6CE-2620-445A-BE0F-21578814DE50}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2866,7 +3067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB04EAB-287A-422C-97F6-EA2D9708AEA7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2926,7 +3127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69F0CA4-DB7D-419A-8E9D-B836DEAFB3D4}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3009,7 +3210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811E1CBB-82B8-4C89-A9B0-110B74F32E49}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -3084,7 +3285,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0126E559-FDB1-46B7-896C-959A466B50AE}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="I2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C76DB95-F518-4FF6-80B3-26233EA8576B}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3169,7 +3456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B28DFF-0E94-40C7-A80F-A5344D93250A}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3249,91 +3536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164FD67D-48F9-4177-9DBC-2D056F56EF66}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="F2" t="s">
-        <v>453</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C1425D-4A55-47C8-BBEA-CFC8CB50502B}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3386,7 +3589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659CBDB1-C160-45D6-9125-81F188D4AC15}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3447,7 +3650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE15B97A-4102-4CA2-A103-F8A266594653}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -3520,7 +3723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C2D530-DAF0-4B59-8492-2193CCDA977A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3581,7 +3784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD497294-C84D-4CB3-881A-A19C25E3664A}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -3655,7 +3858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6D3D29-53BD-4846-94FB-5C6DE5C606EB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3722,7 +3925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96D02E2-39CF-4606-BA05-1891DC79E3D1}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -3818,7 +4021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D29467-341C-4B11-BB94-2DFC62978F40}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -3891,7 +4094,91 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164FD67D-48F9-4177-9DBC-2D056F56EF66}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="F2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725F4022-A1D6-4A3E-9EE9-BE65F59D4C6B}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3977,7 +4264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276FB546-013A-446B-B8B5-2FF65D2C93F6}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4036,61 +4323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8C607A-F1FE-424A-83DA-60CA20E28495}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5814099-CA8F-49C5-93BE-6C49E8369DA7}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -4177,7 +4410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2194781E-4168-4F02-B5DA-BEEF1CEBE05A}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4257,7 +4490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59DFEAD-24A9-492F-B112-38EAE4E28EC1}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -4344,7 +4577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2744CD-779E-41CC-897D-CBE8CA155E1F}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4405,7 +4638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD760DD-00E3-474B-94C3-22EFD0F509D4}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -4479,7 +4712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE251749-EA00-4C26-92C7-7260194F9E72}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -4547,7 +4780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9225A82F-A3DD-4D6F-8397-B067A60E2ECA}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4626,7 +4859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D612147-58D3-4BAC-A88F-99097CCE6172}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -4700,7 +4933,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8C607A-F1FE-424A-83DA-60CA20E28495}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE0D9B6-2F91-4F34-81DE-22F0D257D899}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4771,7 +5058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7F3FFF-66E8-4A7D-BFCA-9AE5F73B3F3D}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4831,68 +5118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902C448-4DA4-493B-BF54-FBA40A75E67A}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780133C7-9E73-42E9-B77D-74F079FA9FAC}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -4960,7 +5186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883E7E78-D318-4A2A-B628-40AF2EB4DBB9}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -5036,7 +5262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1BFA04-22D2-41A7-849A-37E2702040ED}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -5097,7 +5323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41124352-1C9E-4B2E-AA6F-3CFCF905EF4C}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -5169,7 +5395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60C8E2B-208A-4A7A-A0C6-92419F7B48D5}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -5327,7 +5553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75F6C87-9568-4B99-B321-191D743BF415}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5383,7 +5609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D21A50-4048-4DFD-AC4A-D5F0011B9F74}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -5479,7 +5705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61AE5DB2-AE4F-4FF6-AB91-88BC62607974}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5531,7 +5757,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDD55CA-FDD1-49A6-81B7-555F35D0862D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDF5E53-FED6-4175-AC07-4311D23B1783}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -5591,7 +5865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484D1D71-DEC9-4066-B4AA-F5E869277DDA}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -5738,79 +6012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055DEC1A-08CA-4875-83C6-CF9EB247A5A3}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="E2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7FB128-3195-4B84-ABDC-C1734F787DE1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -5873,7 +6075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B0D45E-A4BA-4D06-962E-E4E9A7322D01}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -6081,7 +6283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC319182-309F-4353-B213-E70BA981DDB3}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -6135,7 +6337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFB5230-75BE-4DA8-B814-EBCA02663ADD}">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -6300,7 +6502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033B67C3-6AB1-4DC3-9684-50C5E50939E4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -6360,7 +6562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5917C224-D8BD-4AC2-899B-C66D176AB19F}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -6496,7 +6698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636A6B4C-60D1-40C4-A853-1F5613C194BB}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -6550,7 +6752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA863D1-73B8-4F13-B8E2-A1B76FA5B38A}">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -6725,6 +6927,139 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902C448-4DA4-493B-BF54-FBA40A75E67A}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055DEC1A-08CA-4875-83C6-CF9EB247A5A3}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BAE587-974F-4DAF-9BCF-1ADF22FF29F6}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -6778,7 +7113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7C0CC6-D3A7-49CE-97DA-25A4120C54D7}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6855,139 +7190,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8E2512-937F-49DF-B3E9-6D93766CAAE6}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9635D6B4-4A2C-4BB0-84CA-1AF97942EDFC}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="E2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>